--- a/KFLA/Data/data.en.xlsx
+++ b/KFLA/Data/data.en.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kodnetas\KFLA\KFLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lt1tfs2\Clients\Littelfuse\LiteelFuse Competancies\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E0E79-8F6D-47A6-8377-5EE75975B62A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="38 competency questions" sheetId="2" r:id="rId1"/>
@@ -31,8 +30,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{91A8D203-CB12-4C1D-B9CA-F405DAB779C0}" name="list" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="list" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="E:\Desktop\list.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -2445,9 +2444,6 @@
     <t>Home.Title</t>
   </si>
   <si>
-    <t>Korn Ferry Leadership Architectâ„¢</t>
-  </si>
-  <si>
     <t>Home.Internal</t>
   </si>
   <si>
@@ -2580,9 +2576,6 @@
     <t>RightsReserved</t>
   </si>
   <si>
-    <t>Â© Korn Ferry 2014-2015. All rights reserved.</t>
-  </si>
-  <si>
     <t>Evaluation.Reset</t>
   </si>
   <si>
@@ -2595,9 +2588,6 @@
     <t>CompetencyItem.Cards</t>
   </si>
   <si>
-    <t>Korn Ferry Leadership Architectâ„¢ Global Competency Framework Sort Cards</t>
-  </si>
-  <si>
     <t>EvaluationResult.Legend</t>
   </si>
   <si>
@@ -2659,12 +2649,21 @@
   </si>
   <si>
     <t>Tooltip</t>
+  </si>
+  <si>
+    <t>© Korn Ferry 2014-2015. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Korn Ferry Leadership Architect ©Global Competency Framework Sort Cards</t>
+  </si>
+  <si>
+    <t>Korn Ferry Leadership Architect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2899,13 +2898,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="columnHeader" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="dataCell" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="columnHeader" xfId="1"/>
+    <cellStyle name="dataCell" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="quoteDataCell" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="worksheetDescription" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="worksheetTitle" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="quoteDataCell" xfId="4"/>
+    <cellStyle name="worksheetDescription" xfId="6"/>
+    <cellStyle name="worksheetTitle" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2921,7 +2920,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="list" connectionId="1" xr16:uid="{D6AF6987-FBA1-426C-9161-49F1FAA11ACE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3220,7 +3219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4784,7 +4783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5099,11 +5098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C578803B-F680-4F14-AF5A-E219A79E0F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5165,172 +5164,172 @@
         <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" t="s">
         <v>460</v>
-      </c>
-      <c r="B8" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" t="s">
         <v>462</v>
-      </c>
-      <c r="B9" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" t="s">
         <v>464</v>
-      </c>
-      <c r="B10" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" t="s">
         <v>466</v>
-      </c>
-      <c r="B11" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" t="s">
         <v>468</v>
-      </c>
-      <c r="B12" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" t="s">
         <v>470</v>
-      </c>
-      <c r="B13" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B14" t="s">
         <v>472</v>
-      </c>
-      <c r="B14" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B15" t="s">
         <v>474</v>
-      </c>
-      <c r="B15" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" t="s">
         <v>476</v>
-      </c>
-      <c r="B16" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B17" t="s">
         <v>478</v>
-      </c>
-      <c r="B17" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" t="s">
         <v>480</v>
-      </c>
-      <c r="B18" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B19" t="s">
         <v>482</v>
-      </c>
-      <c r="B19" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" t="s">
         <v>484</v>
-      </c>
-      <c r="B20" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>485</v>
+      </c>
+      <c r="B21" t="s">
         <v>486</v>
-      </c>
-      <c r="B21" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" t="s">
         <v>488</v>
-      </c>
-      <c r="B22" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B23" t="s">
         <v>490</v>
-      </c>
-      <c r="B23" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>491</v>
+      </c>
+      <c r="B24" t="s">
         <v>492</v>
-      </c>
-      <c r="B24" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>494</v>
+      </c>
+      <c r="B26" t="s">
         <v>495</v>
-      </c>
-      <c r="B26" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" t="s">
         <v>497</v>
-      </c>
-      <c r="B27" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B28" t="s">
         <v>97</v>
@@ -5338,7 +5337,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
@@ -5346,7 +5345,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B30" t="s">
         <v>98</v>
@@ -5354,7 +5353,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B31" t="s">
         <v>99</v>
@@ -5362,50 +5361,50 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B32" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B33" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B35" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B36" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B37" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5414,10 +5413,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8270DBB2-E76D-49C1-A258-D3E07104A53B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5432,22 +5431,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B1" t="s">
         <v>284</v>
       </c>
       <c r="C1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5455,19 +5454,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E2" t="s">
         <v>520</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>523</v>
-      </c>
-      <c r="F2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5475,19 +5474,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C3">
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" t="s">
         <v>521</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>524</v>
-      </c>
-      <c r="F3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5495,19 +5494,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E4" t="s">
         <v>522</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>525</v>
-      </c>
-      <c r="F4" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/KFLA/Data/data.en.xlsx
+++ b/KFLA/Data/data.en.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\lt1tfs2\Clients\Littelfuse\LiteelFuse Competancies\Localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gediminas.rimkus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Evaluations" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="list" localSheetId="2">Strings!$A$2:$B$37</definedName>
+    <definedName name="list" localSheetId="2">Strings!$A$2:$B$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="533">
   <si>
     <t>Competency Name</t>
   </si>
@@ -2658,6 +2658,12 @@
   </si>
   <si>
     <t>Korn Ferry Leadership Architect</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>PageTitles.HOME</t>
   </si>
 </sst>
 </file>
@@ -5099,10 +5105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5159,256 +5165,265 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" t="s">
-        <v>530</v>
+    <row r="7" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B23" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B26" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>528</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B34" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B35" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B36" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>507</v>
+      </c>
+      <c r="B37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>509</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>510</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KFLA/Data/data.en.xlsx
+++ b/KFLA/Data/data.en.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="38 competency questions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Stallers and Stoppers" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Strings" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Evaluations" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="38 competency questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Stallers and Stoppers" sheetId="2" r:id="rId2"/>
+    <sheet name="Strings" sheetId="3" r:id="rId3"/>
+    <sheet name="Evaluations" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="list" vbProcedure="false">Strings!$A$2:$B$38</definedName>
+    <definedName name="list" localSheetId="2">Strings!$A$2:$B$38</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,54 +27,54 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="545">
   <si>
-    <t xml:space="preserve">Comp #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competency Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competency Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESS SKILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALENTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OVERUSED SKILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t>Comp #</t>
+  </si>
+  <si>
+    <t>Competency Name</t>
+  </si>
+  <si>
+    <t>Competency Definition</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>LESS SKILLED</t>
+  </si>
+  <si>
+    <t>SKILLED</t>
+  </si>
+  <si>
+    <t>TALENTED</t>
+  </si>
+  <si>
+    <t>OVERUSED SKILL</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Ensures</t>
+      <t>Ensures</t>
     </r>
     <r>
       <rPr>
@@ -89,13 +88,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Holding self and others accountable to meet commitments.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor II: Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster F- Focusing on performance</t>
+    <t>Holding self and others accountable to meet commitments.</t>
+  </si>
+  <si>
+    <t>Factor II: Results</t>
+  </si>
+  <si>
+    <t>Cluster F- Focusing on performance</t>
   </si>
   <si>
     <t xml:space="preserve">Fails to accept a fair share of personal responsibility.
@@ -127,22 +126,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time where you created a sense of urgency with your team around a project? How did they respond and was the project completed as expected?</t>
+    <t>Explain a time where you created a sense of urgency with your team around a project? How did they respond and was the project completed as expected?</t>
   </si>
   <si>
     <t xml:space="preserve">Explain a time when you or your team did not meet specific performance goals.  What was your course of action?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example of when you followed through on a commitment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action oriented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taking on new opportunities and tough challenges with a sense of urgency, high energy, and enthusiasm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster D - Taking Initiative</t>
+    <t>Provide an example of when you followed through on a commitment.</t>
+  </si>
+  <si>
+    <t>Action oriented</t>
+  </si>
+  <si>
+    <t>Taking on new opportunities and tough challenges with a sense of urgency, high energy, and enthusiasm.</t>
+  </si>
+  <si>
+    <t>Cluster D - Taking Initiative</t>
   </si>
   <si>
     <t xml:space="preserve">Is slow to act on an opportunity.
@@ -181,13 +180,13 @@
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Manages</t>
+      <t>Manages</t>
     </r>
     <r>
       <rPr>
@@ -201,13 +200,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Operating effectively, even when things are not certain or the way forward is not clear.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor IV: Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster L - Being Flexible and Adaptable</t>
+    <t>Operating effectively, even when things are not certain or the way forward is not clear.</t>
+  </si>
+  <si>
+    <t>Factor IV: Self</t>
+  </si>
+  <si>
+    <t>Cluster L - Being Flexible and Adaptable</t>
   </si>
   <si>
     <t xml:space="preserve">Struggles to make progress when facing ambiguous or uncertain situations.
@@ -238,25 +237,25 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when you didn't have all the information to make a decision or proceed with a project.  How did you handle it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when something changed in a project (e.g., budget, stakeholders, customer request)  How did you handle this change and what was the outcome?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you took action without enough data. What was the outcome?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attracts top talent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attracting and selecting the best talent to meet current and future business needs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor III: People</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster H - Optimizing Diverse Talent</t>
+    <t>Explain a time when you didn't have all the information to make a decision or proceed with a project.  How did you handle it?</t>
+  </si>
+  <si>
+    <t>Explain a time when something changed in a project (e.g., budget, stakeholders, customer request)  How did you handle this change and what was the outcome?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you took action without enough data. What was the outcome?</t>
+  </si>
+  <si>
+    <t>Attracts top talent</t>
+  </si>
+  <si>
+    <t>Attracting and selecting the best talent to meet current and future business needs.</t>
+  </si>
+  <si>
+    <t>Factor III: People</t>
+  </si>
+  <si>
+    <t>Cluster H - Optimizing Diverse Talent</t>
   </si>
   <si>
     <t xml:space="preserve">Haphazardly selects talent into the organization.
@@ -287,22 +286,22 @@
     <t xml:space="preserve">Explain a time you partnered successfully with recruitment team to find the best talent for an open position.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain how you stay on top of the market/industry in order to know where to find top talent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you were able to leverage your network to find qualified diverse candidates for open positions.</t>
+    <t>Explain how you stay on top of the market/industry in order to know where to find top talent.</t>
+  </si>
+  <si>
+    <t>Explain a time when you were able to leverage your network to find qualified diverse candidates for open positions.</t>
   </si>
   <si>
     <t xml:space="preserve">How do you evaluate candidates for open positions?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Business insight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applying knowledge of business and the marketplace to advance the organization’s goals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factor I: Thought</t>
+    <t>Business insight</t>
+  </si>
+  <si>
+    <t>Applying knowledge of business and the marketplace to advance the organization’s goals.</t>
+  </si>
+  <si>
+    <t>Factor I: Thought</t>
   </si>
   <si>
     <t xml:space="preserve">Cluster A - Understanding the Business	</t>
@@ -327,25 +326,25 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Overdevelops or depends upon industry and business knowledge and skills at the expense of personal, interpersonal, managerial, and leadership skills.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time you used financial or industry data to developed or improve business.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you identified trends that you used to advance a project or function?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you identified a policy, practice or procedure to benefit your business/organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaborates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building partnerships and working collaboratively with others to meet shared objectives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster G - Building Collaborative Relationships</t>
+    <t>Overdevelops or depends upon industry and business knowledge and skills at the expense of personal, interpersonal, managerial, and leadership skills.</t>
+  </si>
+  <si>
+    <t>Tell me about a time you used financial or industry data to developed or improve business.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you identified trends that you used to advance a project or function?</t>
+  </si>
+  <si>
+    <t>Explain a time when you identified a policy, practice or procedure to benefit your business/organization.</t>
+  </si>
+  <si>
+    <t>Collaborates</t>
+  </si>
+  <si>
+    <t>Building partnerships and working collaboratively with others to meet shared objectives.</t>
+  </si>
+  <si>
+    <t>Cluster G - Building Collaborative Relationships</t>
   </si>
   <si>
     <t xml:space="preserve">Overlooks opportunities to work collaboratively with others.
@@ -377,22 +376,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time when you led a cross-functional team.  How did you build those relationships and what was the result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you were part of a group that did not get along or did not see the bigger picture of the project. How did you lead them to a solid working relationship?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe a time when you facilitated an open dialogue with a wide variety of contributors and stakeholders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communicates effectively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developing and delivering multi-mode communications that convey a clear understanding of the unique needs of different audiences.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster I - Influencing people</t>
+    <t>Tell me about a time when you led a cross-functional team.  How did you build those relationships and what was the result?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you were part of a group that did not get along or did not see the bigger picture of the project. How did you lead them to a solid working relationship?</t>
+  </si>
+  <si>
+    <t>Describe a time when you facilitated an open dialogue with a wide variety of contributors and stakeholders.</t>
+  </si>
+  <si>
+    <t>Communicates effectively</t>
+  </si>
+  <si>
+    <t>Developing and delivering multi-mode communications that convey a clear understanding of the unique needs of different audiences.</t>
+  </si>
+  <si>
+    <t>Cluster I - Influencing people</t>
   </si>
   <si>
     <t xml:space="preserve">Has difficulty communicating clear written and verbal messages.
@@ -424,27 +423,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain how you communicate with different audiences. Provide an example when you had to adjust your communication so they understood what you are saying.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you led a project and had to report on its progress. What was your approach?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you were working with someone who didn't understand the project. What was your approach?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you had to deliver negative or uncomfortable news to management or your team.  How did you approach this?</t>
+    <t>Explain how you communicate with different audiences. Provide an example when you had to adjust your communication so they understood what you are saying.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you led a project and had to report on its progress. What was your approach?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you were working with someone who didn't understand the project. What was your approach?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to deliver negative or uncomfortable news to management or your team.  How did you approach this?</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Manages</t>
+      <t>Manages</t>
     </r>
     <r>
       <rPr>
@@ -458,10 +457,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Making sense of complex, high quantity, and sometimes contradictory information to effectively solve problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster B - Making Complex Decisions</t>
+    <t>Making sense of complex, high quantity, and sometimes contradictory information to effectively solve problems.</t>
+  </si>
+  <si>
+    <t>Cluster B - Making Complex Decisions</t>
   </si>
   <si>
     <t xml:space="preserve">Misses the complexity of issues and force fits solutions.
@@ -491,10 +490,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when you analyzed multiple and diverse sources of information to define a problem accurately before moving to a solution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you distinguished between what was relevant and what was unimportant in a complex project or task. Explain the situation and the results.</t>
+    <t>Explain a time when you analyzed multiple and diverse sources of information to define a problem accurately before moving to a solution.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you distinguished between what was relevant and what was unimportant in a complex project or task. Explain the situation and the results.</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me about a time when you had to look beyond the obvious and understand deeper levels of the situation.  </t>
@@ -502,13 +501,13 @@
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Manages</t>
+      <t>Manages</t>
     </r>
     <r>
       <rPr>
@@ -522,7 +521,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Handling conflict situations effectively, with a minimum of noise.</t>
+    <t>Handling conflict situations effectively, with a minimum of noise.</t>
   </si>
   <si>
     <t xml:space="preserve">Avoids conflict.
@@ -554,22 +553,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Give an example of when you managed a conflict well.  How was it resolved?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you anticipated conflict. How did you you address the situation? Did you managed to avoid the conflict in the end?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you disagreed with someone's opinion. What did you do?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stepping up to address difficult issues, saying what needs to be said.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster J - Being Authentic</t>
+    <t>Give an example of when you managed a conflict well.  How was it resolved?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you anticipated conflict. How did you you address the situation? Did you managed to avoid the conflict in the end?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you disagreed with someone's opinion. What did you do?</t>
+  </si>
+  <si>
+    <t>Courage</t>
+  </si>
+  <si>
+    <t>Stepping up to address difficult issues, saying what needs to be said.</t>
+  </si>
+  <si>
+    <t>Cluster J - Being Authentic</t>
   </si>
   <si>
     <t xml:space="preserve">Shies away from difficult issues or challenging assignments.
@@ -600,19 +599,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time you shared unpleasant news with a manager or team (e.g., missed deadline, lost sale) How was the message received and what was the result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you had to deliver negative feedback. What was your approach and how was it received?</t>
+    <t>Tell me about a time you shared unpleasant news with a manager or team (e.g., missed deadline, lost sale) How was the message received and what was the result?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to deliver negative feedback. What was your approach and how was it received?</t>
   </si>
   <si>
     <t xml:space="preserve">Provide an example of a time you volunteered to take on a difficult assignment. </t>
   </si>
   <si>
-    <t xml:space="preserve">Customer focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building strong customer relationships and delivering customer-centric solutions.</t>
+    <t>Customer focus</t>
+  </si>
+  <si>
+    <t>Building strong customer relationships and delivering customer-centric solutions.</t>
   </si>
   <si>
     <t xml:space="preserve">Is unaware of customer expectations.
@@ -644,19 +643,19 @@
     <t xml:space="preserve">Provide an example of when you anticipated a customer need and went above and beyond to meet it. </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time when you had an unreasonable customer request. How did you handle it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example on how you researched your customer to ensure positive engagement.</t>
+    <t>Tell me about a time when you had an unreasonable customer request. How did you handle it?</t>
+  </si>
+  <si>
+    <t>Provide an example on how you researched your customer to ensure positive engagement.</t>
   </si>
   <si>
     <t xml:space="preserve">Explain when you have used a customer insight to drive the development of a new product or offering. </t>
   </si>
   <si>
-    <t xml:space="preserve">Decision quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making good and timely decisions that keep the organization moving forward.</t>
+    <t>Decision quality</t>
+  </si>
+  <si>
+    <t>Making good and timely decisions that keep the organization moving forward.</t>
   </si>
   <si>
     <t xml:space="preserve">Approaches decisions haphazardly or delays decision making.
@@ -684,19 +683,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time you had to make a decision quickly in order to gain a positive result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example where you had to distinguish between opinions and facts.  How did you approach this and what was the end result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of when you made a bad decision. How did you rectify the situation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develops talent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developing people to meet both their career goals and the organization’s goals.</t>
+    <t>Tell me about a time you had to make a decision quickly in order to gain a positive result.</t>
+  </si>
+  <si>
+    <t>Provide an example where you had to distinguish between opinions and facts.  How did you approach this and what was the end result?</t>
+  </si>
+  <si>
+    <t>Provide an example of when you made a bad decision. How did you rectify the situation?</t>
+  </si>
+  <si>
+    <t>Develops talent</t>
+  </si>
+  <si>
+    <t>Developing people to meet both their career goals and the organization’s goals.</t>
   </si>
   <si>
     <t xml:space="preserve">Doesn’t take time to work on development of others.
@@ -726,10 +725,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain how you have successfully developed talent in your team or within the organization? What was your approach and what was the result for the associate?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a stretch assignment for a member of your team.</t>
+    <t>Explain how you have successfully developed talent in your team or within the organization? What was your approach and what was the result for the associate?</t>
+  </si>
+  <si>
+    <t>Provide an example of a stretch assignment for a member of your team.</t>
   </si>
   <si>
     <t xml:space="preserve">Explain how you have used various developmental tools to provide opportunities for your team. </t>
@@ -740,13 +739,13 @@
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Values</t>
+      <t>Values</t>
     </r>
     <r>
       <rPr>
@@ -760,7 +759,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Recognizing the value that different perspectives and cultures bring to an organization.</t>
+    <t>Recognizing the value that different perspectives and cultures bring to an organization.</t>
   </si>
   <si>
     <t xml:space="preserve">Lacks awareness of other cultures.
@@ -790,22 +789,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain how you have leveraged different experiences, work styles, backgrounds, and perspectives within your team or within a project?  What  was the result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of when you asked for input from your team or organization around a decision. How did the varied input affect the decision?</t>
+    <t>Explain how you have leveraged different experiences, work styles, backgrounds, and perspectives within your team or within a project?  What  was the result?</t>
+  </si>
+  <si>
+    <t>Provide an example of when you asked for input from your team or organization around a decision. How did the varied input affect the decision?</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me about a time when you were challenged to balance the needs of a diverse group.  Were you able to achieve the results intended? Was the group pleased with the result? </t>
   </si>
   <si>
-    <t xml:space="preserve">Directs work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Providing direction, delegating, and removing obstacles to get work done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster E -Managing Execution</t>
+    <t>Directs work</t>
+  </si>
+  <si>
+    <t>Providing direction, delegating, and removing obstacles to get work done.</t>
+  </si>
+  <si>
+    <t>Cluster E -Managing Execution</t>
   </si>
   <si>
     <t xml:space="preserve">Provides incomplete, vague, or disorganized instructions.
@@ -838,7 +837,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a situation where you conveyed clear performance expectations. How did you follow up with your team? Did you achieve the expected results?</t>
+    <t>Explain a situation where you conveyed clear performance expectations. How did you follow up with your team? Did you achieve the expected results?</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me about a time when you set stretch goals and objectives, pushing an individual or a team to elevate performance. </t>
@@ -847,18 +846,18 @@
     <t xml:space="preserve">Explain a time when you successfully delegated a project to a team member.  What was the result and impact?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when you were unsuccessful delegating. What was the result and impact?</t>
+    <t>Explain a time when you were unsuccessful delegating. What was the result and impact?</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Drives</t>
+      <t>Drives</t>
     </r>
     <r>
       <rPr>
@@ -872,7 +871,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Creating a climate where people are motivated to do their best to help the organization achieve its objectives.</t>
+    <t>Creating a climate where people are motivated to do their best to help the organization achieve its objectives.</t>
   </si>
   <si>
     <t xml:space="preserve">Has little insight into what motivates others.
@@ -907,16 +906,16 @@
     <t xml:space="preserve">Describe a situation where you had to motivate a group of different team members.  What was your approach and how did they respond? </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when you may have stretched an associate beyond their capability.  How did you adjust your motivation for that associate?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe a time you had to avoid providing constructive feedback and it impacted the engagement of your associate.  How did the situation unfold?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial acumen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpreting and applying understanding of key financial indicators to make better business decisions.</t>
+    <t>Explain a time when you may have stretched an associate beyond their capability.  How did you adjust your motivation for that associate?</t>
+  </si>
+  <si>
+    <t>Describe a time you had to avoid providing constructive feedback and it impacted the engagement of your associate.  How did the situation unfold?</t>
+  </si>
+  <si>
+    <t>Financial acumen</t>
+  </si>
+  <si>
+    <t>Interpreting and applying understanding of key financial indicators to make better business decisions.</t>
   </si>
   <si>
     <t xml:space="preserve">Is unfamiliar with financial terms.
@@ -941,22 +940,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a project where you needed to identify and monitor key financial indicators to measure performance, identify trends, and suggest strategies that impacted results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you had to present financial results to people with limited financially acumen.  What was your approach?</t>
+    <t>Explain a project where you needed to identify and monitor key financial indicators to measure performance, identify trends, and suggest strategies that impacted results.</t>
+  </si>
+  <si>
+    <t>Explain a time when you had to present financial results to people with limited financially acumen.  What was your approach?</t>
   </si>
   <si>
     <t xml:space="preserve">Provide an example of when you used financial analysis to make your business case.  How did it work? </t>
   </si>
   <si>
-    <t xml:space="preserve">Global perspective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taking a broad view when approaching issues, using a global lens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster C - Creating the New and Different</t>
+    <t>Global perspective</t>
+  </si>
+  <si>
+    <t>Taking a broad view when approaching issues, using a global lens.</t>
+  </si>
+  <si>
+    <t>Cluster C - Creating the New and Different</t>
   </si>
   <si>
     <t xml:space="preserve">Is narrow in thinking when solving problems.
@@ -985,10 +984,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when you developed different ideas within your group to deal with global uncertainties.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a situation where you considered multiple and varied viewpoints when addressing problems and opportunities. What was the end result?</t>
+    <t>Explain a time when you developed different ideas within your group to deal with global uncertainties.</t>
+  </si>
+  <si>
+    <t>Explain a situation where you considered multiple and varied viewpoints when addressing problems and opportunities. What was the end result?</t>
   </si>
   <si>
     <t xml:space="preserve">Provide an example where you pushed for an opportunity on a global scale that your organization was not prepared for. What was the result? </t>
@@ -996,13 +995,13 @@
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Cultivates</t>
+      <t>Cultivates</t>
     </r>
     <r>
       <rPr>
@@ -1016,7 +1015,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Creating new and better ways for the organization to be successful.</t>
+    <t>Creating new and better ways for the organization to be successful.</t>
   </si>
   <si>
     <t xml:space="preserve">Stays within comfort zone rather than experimenting with new ways of looking at things.
@@ -1051,19 +1050,19 @@
     <t xml:space="preserve">Tell me about a time when you developed a new viable idea to improve your business area.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Describe a time when you created excitement within your team to explore creative options.  What was the end result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you had to sell a creative idea to higher management.  What was your approach and how was it received?  Was it implemented?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you stay on top of emerging trends in the industry?  How did you apply them in implementing your team projects?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interpersonal savvy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relating openly and comfortably with diverse groups of people.</t>
+    <t>Describe a time when you created excitement within your team to explore creative options.  What was the end result?</t>
+  </si>
+  <si>
+    <t>Explain a time when you had to sell a creative idea to higher management.  What was your approach and how was it received?  Was it implemented?</t>
+  </si>
+  <si>
+    <t>How do you stay on top of emerging trends in the industry?  How did you apply them in implementing your team projects?</t>
+  </si>
+  <si>
+    <t>Interpersonal savvy</t>
+  </si>
+  <si>
+    <t>Relating openly and comfortably with diverse groups of people.</t>
   </si>
   <si>
     <t xml:space="preserve">Builds few relationships.
@@ -1095,24 +1094,24 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when it was difficult to build rapport with a colleague or a team. What did you do and what was the end result?</t>
+    <t>Explain a time when it was difficult to build rapport with a colleague or a team. What did you do and what was the end result?</t>
   </si>
   <si>
     <t xml:space="preserve">Explain a time when you were involved with a complex project that needed support from a wide variety of people.  How did you build relationships with the team? </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example of when you needed to show compassion or empathy to a team member.  What was the situation and result?</t>
+    <t>Provide an example of when you needed to show compassion or empathy to a team member.  What was the situation and result?</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Builds</t>
+      <t>Builds</t>
     </r>
     <r>
       <rPr>
@@ -1126,7 +1125,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Effectively building formal and informal relationship networks inside and outside the organization.</t>
+    <t>Effectively building formal and informal relationship networks inside and outside the organization.</t>
   </si>
   <si>
     <t xml:space="preserve">Builds limited relationships with different groups.
@@ -1152,19 +1151,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example when you needed to consult within your network (internal or external) to accomplish your goals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a situation when you had to build an internal and external network. How did it help you professionally (i.e., to progress in your career and achieve your goals).</t>
+    <t>Provide an example when you needed to consult within your network (internal or external) to accomplish your goals.</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you had to build an internal and external network. How did it help you professionally (i.e., to progress in your career and achieve your goals).</t>
   </si>
   <si>
     <t xml:space="preserve">Provide an example of consulting with a network beyond your immediate functional area. </t>
   </si>
   <si>
-    <t xml:space="preserve">Nimble learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actively learning through experimentation when tackling new problems, using both successes and failures as learning fodder.</t>
+    <t>Nimble learning</t>
+  </si>
+  <si>
+    <t>Actively learning through experimentation when tackling new problems, using both successes and failures as learning fodder.</t>
   </si>
   <si>
     <t xml:space="preserve">Struggles to learn in new situations.
@@ -1200,13 +1199,13 @@
     <t xml:space="preserve">Explain a time when you made a mistake. How did you manage to turn that mistake into a learning opportunity? </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example of when you used a different approach to solve a problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organizational savvy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maneuvering comfortably through complex policy, process, and people-related organizational dynamics.</t>
+    <t>Provide an example of when you used a different approach to solve a problem.</t>
+  </si>
+  <si>
+    <t>Organizational savvy</t>
+  </si>
+  <si>
+    <t>Maneuvering comfortably through complex policy, process, and people-related organizational dynamics.</t>
   </si>
   <si>
     <t xml:space="preserve">Overlooks or disregards the political complexities of the organization.
@@ -1240,16 +1239,16 @@
     <t xml:space="preserve">Explain a time when you had to navigate through a sensitive situation in your organization (e.g., to deal with competing priorities among groups).  What was the process you used and what was the result? </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example when you anticipated a change in the market that could impact  your organization.  What was that change and how did you navigate through it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example where you navigated through cultural differences to achieve the  objectives of a project? Did you achieve the result as anticipated?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using compelling arguments to gain the support and commitment of others.</t>
+    <t>Provide an example when you anticipated a change in the market that could impact  your organization.  What was that change and how did you navigate through it?</t>
+  </si>
+  <si>
+    <t>Provide an example where you navigated through cultural differences to achieve the  objectives of a project? Did you achieve the result as anticipated?</t>
+  </si>
+  <si>
+    <t>Persuades</t>
+  </si>
+  <si>
+    <t>Using compelling arguments to gain the support and commitment of others.</t>
   </si>
   <si>
     <t xml:space="preserve">Pushes own point of view too strongly.
@@ -1280,22 +1279,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example when you convinced management or a different team about your business idea. What was your approach?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a situation when you had a plan for a project and your boss or team were not on board.  How did you handle the situation? What was the result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a time when you had to encounter views that were different from your own. How did you negotiate with the members of the project team to come to a successful business outcome?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you had to negotiate with a customer who had expressed the need for a change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plans and aligns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning and prioritizing work to meet commitments aligned with organizational goals.</t>
+    <t>Provide an example when you convinced management or a different team about your business idea. What was your approach?</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you had a plan for a project and your boss or team were not on board.  How did you handle the situation? What was the result?</t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you had to encounter views that were different from your own. How did you negotiate with the members of the project team to come to a successful business outcome?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to negotiate with a customer who had expressed the need for a change.</t>
+  </si>
+  <si>
+    <t>Plans and aligns</t>
+  </si>
+  <si>
+    <t>Planning and prioritizing work to meet commitments aligned with organizational goals.</t>
   </si>
   <si>
     <t xml:space="preserve">Gets caught up in immediate needs without attending to larger priorities.
@@ -1327,22 +1326,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example when you had to change your priorities according to business conditions or a shift in management direction.  What was your approach?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a situation when you had to lead a project and define the necessary resources.  Were you successful in securing those resources?  If not, how did you handle the situation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a time when you encountered obstacles with your project or work.  How did you deal with those obstacles and what was the end result?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of when you managed a project which turned out to be a success. How did you plan the project?  Did you achieve the results on time and within budget?</t>
+    <t>Provide an example when you had to change your priorities according to business conditions or a shift in management direction.  What was your approach?</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you had to lead a project and define the necessary resources.  Were you successful in securing those resources?  If not, how did you handle the situation?</t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you encountered obstacles with your project or work.  How did you deal with those obstacles and what was the end result?</t>
+  </si>
+  <si>
+    <t>Provide an example of when you managed a project which turned out to be a success. How did you plan the project?  Did you achieve the results on time and within budget?</t>
   </si>
   <si>
     <t xml:space="preserve">Being resilient </t>
   </si>
   <si>
-    <t xml:space="preserve">Rebounding from setbacks and adversity when facing difficult situations.</t>
+    <t>Rebounding from setbacks and adversity when facing difficult situations.</t>
   </si>
   <si>
     <t xml:space="preserve">Gets easily rattled in high-pressure situations.
@@ -1377,16 +1376,16 @@
     <t xml:space="preserve">Explain a time when you had a stressful situation. How did you manage to stay focused? </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example of a time when you had to take constructive action to gravitate through a difficult situation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a situation when you needed to recover from a set-back during a project.</t>
+    <t>Provide an example of a time when you had to take constructive action to gravitate through a difficult situation.</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you needed to recover from a set-back during a project.</t>
   </si>
   <si>
     <t xml:space="preserve">Resourcefulness </t>
   </si>
   <si>
-    <t xml:space="preserve">Securing and deploying resources effectively and efficiently.</t>
+    <t>Securing and deploying resources effectively and efficiently.</t>
   </si>
   <si>
     <t xml:space="preserve">Has difficulty figuring out where to get resources.
@@ -1416,19 +1415,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example of a time when you had to use different or new resources to reach the desired outcome.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a time when you had to make the most out of limited recourses available. How did you allocate them?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a situation when your knowledge of internal structures, processes and/or culture helped you complete a project on time and within budget.</t>
+    <t>Provide an example of a time when you had to use different or new resources to reach the desired outcome.</t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you had to make the most out of limited recourses available. How did you allocate them?</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when your knowledge of internal structures, processes and/or culture helped you complete a project on time and within budget.</t>
   </si>
   <si>
     <t xml:space="preserve">Drives results </t>
   </si>
   <si>
-    <t xml:space="preserve">Consistently achieving results, even under tough circumstances.</t>
+    <t>Consistently achieving results, even under tough circumstances.</t>
   </si>
   <si>
     <t xml:space="preserve">Is reluctant to push for results.
@@ -1463,24 +1462,24 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time when you were asked to take on a project that was failing. How did you turn it around and deliver positive results?</t>
+    <t>Tell me about a time when you were asked to take on a project that was failing. How did you turn it around and deliver positive results?</t>
   </si>
   <si>
     <t xml:space="preserve">Provide an example of a time when you had to work on a challenging task/project. How did you manage to overcome these challenges?  </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time when you achieved results but at a high cost (e.g., over-stretched team, compromised budget, overruns). What were the consequences?</t>
+    <t>Tell me about a time when you achieved results but at a high cost (e.g., over-stretched team, compromised budget, overruns). What were the consequences?</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Demonstrates</t>
+      <t>Demonstrates</t>
     </r>
     <r>
       <rPr>
@@ -1494,10 +1493,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Using a combination of feedback and reflection to gain productive insight into personal strengths and weaknesses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cluster K - Being Open</t>
+    <t>Using a combination of feedback and reflection to gain productive insight into personal strengths and weaknesses.</t>
+  </si>
+  <si>
+    <t>Cluster K - Being Open</t>
   </si>
   <si>
     <t xml:space="preserve">Doesn’t reflect on past mistakes.
@@ -1528,19 +1527,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time when you had to take responsibility for a mistake or short-coming. How did you recover?</t>
+    <t>Tell me about a time when you had to take responsibility for a mistake or short-coming. How did you recover?</t>
   </si>
   <si>
     <t xml:space="preserve">Tell me about a time when you received constructive feedback. How did you use this feedback to improve your performance?  </t>
   </si>
   <si>
-    <t xml:space="preserve">How do you typically overcome a limitation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actively seeking new ways to grow and be challenged using both formal and informal development channels.</t>
+    <t>How do you typically overcome a limitation?</t>
+  </si>
+  <si>
+    <t>Self-development</t>
+  </si>
+  <si>
+    <t>Actively seeking new ways to grow and be challenged using both formal and informal development channels.</t>
   </si>
   <si>
     <t xml:space="preserve">Doesn’t put in the effort to grow and change.
@@ -1570,19 +1569,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time you learned something new. What was your process?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you didn't know how to approach a task.  What was your approach?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe a time when you sought out an assignment that stretched you out of your comfort zone. How did you handle it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Situational adaptability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapting approach and demeanor in real time to match the shifting demands of different situations.</t>
+    <t>Tell me about a time you learned something new. What was your process?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you didn't know how to approach a task.  What was your approach?</t>
+  </si>
+  <si>
+    <t>Describe a time when you sought out an assignment that stretched you out of your comfort zone. How did you handle it?</t>
+  </si>
+  <si>
+    <t>Situational adaptability</t>
+  </si>
+  <si>
+    <t>Adapting approach and demeanor in real time to match the shifting demands of different situations.</t>
   </si>
   <si>
     <t xml:space="preserve">Uses same style and approach regardless of the situation.
@@ -1611,24 +1610,24 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Describe a time when you needed to adjust your interpersonal or leadership behavior to adapt to a team.</t>
+    <t>Describe a time when you needed to adjust your interpersonal or leadership behavior to adapt to a team.</t>
   </si>
   <si>
     <t xml:space="preserve">When leading a project, how do you normally assess the strengths and weaknesses of each team member in order to achieve the best results. Provide a real-life example from your past. </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time when you did not manage to adapt to a new situation quickly enough. How did this impact the dynamics of the team and the end result?</t>
+    <t>Tell me about a time when you did not manage to adapt to a new situation quickly enough. How did this impact the dynamics of the team and the end result?</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Balances</t>
+      <t>Balances</t>
     </r>
     <r>
       <rPr>
@@ -1642,7 +1641,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Anticipating and balancing the needs of multiple stakeholders.</t>
+    <t>Anticipating and balancing the needs of multiple stakeholders.</t>
   </si>
   <si>
     <t xml:space="preserve">Focuses on meeting current expectations and needs of a limited number of stakeholders.
@@ -1670,19 +1669,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example of a large scale project that you led.  How did you keep the stakeholders informed and up to date on the progress of that project?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a project involving multiple stakeholders with a variety of needs and goals. How did you bring them together to ensure that all needs were met?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you were able to influence the stakeholders expectations, what were your methods n doing this?</t>
+    <t>Provide an example of a large scale project that you led.  How did you keep the stakeholders informed and up to date on the progress of that project?</t>
+  </si>
+  <si>
+    <t>Provide an example of a project involving multiple stakeholders with a variety of needs and goals. How did you bring them together to ensure that all needs were met?</t>
+  </si>
+  <si>
+    <t>Explain a time when you were able to influence the stakeholders expectations, what were your methods n doing this?</t>
   </si>
   <si>
     <t xml:space="preserve">Strategic mindset </t>
   </si>
   <si>
-    <t xml:space="preserve">Seeing ahead to future possibilities and translating them into breakthrough strategies.</t>
+    <t>Seeing ahead to future possibilities and translating them into breakthrough strategies.</t>
   </si>
   <si>
     <t xml:space="preserve">Is more comfortable in the tactical here and now.
@@ -1712,7 +1711,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Describe a situation when you created a strategy to sustain competitive advantage? How did you do it? What was the result?</t>
+    <t>Describe a situation when you created a strategy to sustain competitive advantage? How did you do it? What was the result?</t>
   </si>
   <si>
     <t xml:space="preserve">Give an example of a time when you formulated a strategy and defined the follow up steps to achieve organization strategic goals? </t>
@@ -1723,13 +1722,13 @@
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Builds effective</t>
+      <t>Builds effective</t>
     </r>
     <r>
       <rPr>
@@ -1743,7 +1742,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Building strong-identity teams that apply their diverse skills and perspectives to achieve common goals.</t>
+    <t>Building strong-identity teams that apply their diverse skills and perspectives to achieve common goals.</t>
   </si>
   <si>
     <t xml:space="preserve">Doesn’t create a common mindset or challenge.
@@ -1777,16 +1776,16 @@
     <t xml:space="preserve">Provide an example of a situation when you placed team goals ahead of your own. </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when you had to lead a diversified team. What was your approach? What were the biggest challenges and how did you manage to overcome them?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a situation when you needed to foster an environment of open dialog within a team? What was your approach?</t>
+    <t>Explain a time when you had to lead a diversified team. What was your approach? What were the biggest challenges and how did you manage to overcome them?</t>
+  </si>
+  <si>
+    <t>Provide an example of a situation when you needed to foster an environment of open dialog within a team? What was your approach?</t>
   </si>
   <si>
     <t xml:space="preserve">Tech savvy </t>
   </si>
   <si>
-    <t xml:space="preserve">Anticipating and adopting innovations in business-building digital and technology applications.</t>
+    <t>Anticipating and adopting innovations in business-building digital and technology applications.</t>
   </si>
   <si>
     <t xml:space="preserve">Is inexperienced with key technology tools or too comfortable with existing applications to willingly adopt new technologies.
@@ -1812,10 +1811,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example of a situation when you had to readily learn and adopt a new technology.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide an example of a time when you had to evaluate different technologies in terms of their suitability to achieve a business need. What was your approach?</t>
+    <t>Provide an example of a situation when you had to readily learn and adopt a new technology.</t>
+  </si>
+  <si>
+    <t>Provide an example of a time when you had to evaluate different technologies in terms of their suitability to achieve a business need. What was your approach?</t>
   </si>
   <si>
     <t xml:space="preserve">Provide an example of a time when some technology held you back from completing a project on time or within budget. </t>
@@ -1823,13 +1822,13 @@
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Instills</t>
+      <t>Instills</t>
     </r>
     <r>
       <rPr>
@@ -1843,7 +1842,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Gaining the confidence and trust of others through honesty, integrity, and authenticity.</t>
+    <t>Gaining the confidence and trust of others through honesty, integrity, and authenticity.</t>
   </si>
   <si>
     <t xml:space="preserve">Lacks consistent follow-through on commitments.
@@ -1877,21 +1876,21 @@
     <t xml:space="preserve">Provide an example of a situation when someone raised doubts about your intergrity or put it to a test.  Please describe your reaction and elaborate on further development of the situation. </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time when you were faced with unethical behavior at work. How did you handle the situation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you had to gain trust and confidence with others.</t>
+    <t>Tell me about a time when you were faced with unethical behavior at work. How did you handle the situation?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to gain trust and confidence with others.</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Drives</t>
+      <t>Drives</t>
     </r>
     <r>
       <rPr>
@@ -1905,7 +1904,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Painting a compelling picture of the vision and strategy that motivates others to action.</t>
+    <t>Painting a compelling picture of the vision and strategy that motivates others to action.</t>
   </si>
   <si>
     <t xml:space="preserve">Fails to personally connect with the organization’s vision.
@@ -1936,7 +1935,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time when your team experienced low morale. What was your approach?</t>
+    <t>Tell me about a time when your team experienced low morale. What was your approach?</t>
   </si>
   <si>
     <t xml:space="preserve">Provide an example of a situation when you had to communicate a vision with a sense of purpose about the future to motivate others. </t>
@@ -1947,13 +1946,13 @@
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Optimizes</t>
+      <t>Optimizes</t>
     </r>
     <r>
       <rPr>
@@ -1967,7 +1966,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Knowing the most effective and efficient processes to get things done, with a focus on continuous improvement.</t>
+    <t>Knowing the most effective and efficient processes to get things done, with a focus on continuous improvement.</t>
   </si>
   <si>
     <t xml:space="preserve">Works in a disorganized fashion.
@@ -1999,51 +1998,51 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example of a time when you had to select a process that would best suit a situation. What was your rationale behind the decision?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you had to break down a complex process to save time and be more effective.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you identified the need to improve a process. What was your approach?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not A Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question 4</t>
+    <t>Provide an example of a time when you had to select a process that would best suit a situation. What was your rationale behind the decision?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to break down a complex process to save time and be more effective.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you identified the need to improve a process. What was your approach?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>A Problem</t>
+  </si>
+  <si>
+    <t>Not A Problem</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Poor</t>
+      <t>Poor</t>
     </r>
     <r>
       <rPr>
@@ -2057,7 +2056,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Trouble with people</t>
+    <t>Trouble with people</t>
   </si>
   <si>
     <t xml:space="preserve">Has low detail-orientation.
@@ -2080,19 +2079,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time that you overcommitted to a project and ended up underdelivering.  How did you recover?  What were the consequences?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you stay organized?  Have you had a time that you missed a deadline since you didn't document it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a project with multiple streams and stakeholders.  How did you stay organized?  What tricks do you have to ensure you don't miss deadlines.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you had to say no to a project.  What was the reaction from the requestor?  How did you handle?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocked personal learner</t>
+    <t>Tell me about a time that you overcommitted to a project and ended up underdelivering.  How did you recover?  What were the consequences?</t>
+  </si>
+  <si>
+    <t>How do you stay organized?  Have you had a time that you missed a deadline since you didn't document it?</t>
+  </si>
+  <si>
+    <t>Explain a project with multiple streams and stakeholders.  How did you stay organized?  What tricks do you have to ensure you don't miss deadlines.</t>
+  </si>
+  <si>
+    <t>Explain a time when you had to say no to a project.  What was the reaction from the requestor?  How did you handle?</t>
+  </si>
+  <si>
+    <t>Blocked personal learner</t>
   </si>
   <si>
     <t xml:space="preserve">Is closed to learning new personal, interpersonal, managerial, and leadership skills, approaches, and tactics.
@@ -2117,24 +2116,24 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">How have you developed yourself throughout your career? What is your preferred learning track?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time that you were curious about something and you proceeded to take time to learn about it.  What tactics did you use?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are you looking for from a development perspective? What is your preferred mode of learning?</t>
+    <t>How have you developed yourself throughout your career? What is your preferred learning track?</t>
+  </si>
+  <si>
+    <t>Explain a time that you were curious about something and you proceeded to take time to learn about it.  What tactics did you use?</t>
+  </si>
+  <si>
+    <t>What are you looking for from a development perspective? What is your preferred mode of learning?</t>
   </si>
   <si>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Lack of</t>
+      <t>Lack of</t>
     </r>
     <r>
       <rPr>
@@ -2165,16 +2164,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">What are your top 3 values? Why are they important to you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you decided not to do something because of your values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure to build a team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doesn’t inspire or build talent</t>
+    <t>What are your top 3 values? Why are they important to you?</t>
+  </si>
+  <si>
+    <t>Explain a time when you decided not to do something because of your values.</t>
+  </si>
+  <si>
+    <t>Failure to build a team</t>
+  </si>
+  <si>
+    <t>Doesn’t inspire or build talent</t>
   </si>
   <si>
     <t xml:space="preserve">Doesn’t believe much in the value of teams.
@@ -2199,19 +2198,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when you pulled together a team to accomplish a task or project and it failed.  What did you learn from it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time that you celebrated successes of your team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time when you had challenges within your team.  How did you handle and what was the outcome?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you tend to delegate whole projects or just pieces?  Why do you take the approach stated?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure to staff effectively</t>
+    <t>Explain a time when you pulled together a team to accomplish a task or project and it failed.  What did you learn from it?</t>
+  </si>
+  <si>
+    <t>Explain a time that you celebrated successes of your team.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had challenges within your team.  How did you handle and what was the outcome?</t>
+  </si>
+  <si>
+    <t>Do you tend to delegate whole projects or just pieces?  Why do you take the approach stated?</t>
+  </si>
+  <si>
+    <t>Failure to staff effectively</t>
   </si>
   <si>
     <t xml:space="preserve">Does not assemble skilled staff either from inside or outside the organization.
@@ -2231,16 +2230,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a hiring mistake that you have made from your past.  What happened and how did you resolve it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When selecting members of your team, what do you usually look for?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you had a direct report who you believed would excel in their position and they didn't?  How did you approach this?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key skill deficiencies</t>
+    <t>Explain a hiring mistake that you have made from your past.  What happened and how did you resolve it?</t>
+  </si>
+  <si>
+    <t>When selecting members of your team, what do you usually look for?</t>
+  </si>
+  <si>
+    <t>Have you had a direct report who you believed would excel in their position and they didn't?  How did you approach this?</t>
+  </si>
+  <si>
+    <t>Key skill deficiencies</t>
   </si>
   <si>
     <t xml:space="preserve">Lacks one or more key job-required talents or skills needed to perform effectively.
@@ -2254,13 +2253,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">When interviewing - ensure you have your key technical/functional skills identified and look for ways to ensure they have them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-strategic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Too narrow</t>
+    <t>When interviewing - ensure you have your key technical/functional skills identified and look for ways to ensure they have them</t>
+  </si>
+  <si>
+    <t>Non-strategic</t>
+  </si>
+  <si>
+    <t>Too narrow</t>
   </si>
   <si>
     <t xml:space="preserve">Can’t create effective strategies.
@@ -2285,13 +2284,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Explain a time when you were expected to come up with a strategic vision but you stayed focus on more tactics and details.  How did it work out and were you able to overcorrect?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain a time when you came up with a  strategy that could not be implemented.  Why not and what did you do to compensate?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overdependence on an advocate</t>
+    <t>Explain a time when you were expected to come up with a strategic vision but you stayed focus on more tactics and details.  How did it work out and were you able to overcorrect?</t>
+  </si>
+  <si>
+    <t>Explain a time when you came up with a  strategy that could not be implemented.  Why not and what did you do to compensate?</t>
+  </si>
+  <si>
+    <t>Overdependence on an advocate</t>
   </si>
   <si>
     <t xml:space="preserve">Has been with the same boss, champion, mentor, advocate too long.
@@ -2311,16 +2310,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">How many different bosses and mentors have you had over the years?  What have you learned from them?</t>
+    <t>How many different bosses and mentors have you had over the years?  What have you learned from them?</t>
   </si>
   <si>
     <t xml:space="preserve">Explain an assignment that you were given and you had to navigate it independently.  How did you handle it?  Did you need coaching and mentoring? </t>
   </si>
   <si>
-    <t xml:space="preserve">Tell me about a time when a favorite boss left the company or moved to a new assignment? How did it go with the replacement?  Did you need to adjust your work style?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overdependence on a single skill</t>
+    <t>Tell me about a time when a favorite boss left the company or moved to a new assignment? How did it go with the replacement?  Did you need to adjust your work style?</t>
+  </si>
+  <si>
+    <t>Overdependence on a single skill</t>
   </si>
   <si>
     <t xml:space="preserve">Relies too much on a single strength for performance and career progression.
@@ -2339,10 +2338,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">When interviewing - look for signs that they have used the same technology, the same strength or has been in the same function throughout their career.  This may limit their learning agility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Political missteps</t>
+    <t>When interviewing - look for signs that they have used the same technology, the same strength or has been in the same function throughout their career.  This may limit their learning agility.</t>
+  </si>
+  <si>
+    <t>Political missteps</t>
   </si>
   <si>
     <t xml:space="preserve">Can’t get things done in complex political settings and environments.
@@ -2365,317 +2364,314 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Provide an example of when you may have shared information with someone you shouldn't have.  What happened and how did you correct it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell me about a time you struggled to get things done with multiple stakeholders.  Why do you think it happened and how did you adjust your approach the next time?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoppers.Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAREER STALLERS AND STOPPERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoppers.Loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loading stoppers...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageTitles.LIBRARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competency Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageTitles.COMPETENCIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competency Assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageTitles.QUESTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Behavior-Based Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PageTitles.HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home.Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korn Ferry Leadership Architect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home.Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For internal use only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuestionsResult.Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUESTIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuestionsResult.Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuestionsResult.Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No competencies or stoppers selected. Redirrecting...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons.Print</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons.Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons.Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons.Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buttons.Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questionaire.Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you sure you wish to reset questionaire?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questionaire.PasswordRequired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password is required to continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questionaire.PasswordIncorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password is incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questionaire.Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questionaire.Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Questionaire.Loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loading competencies...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StopperItem.Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROBLEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StopperItem.NotAProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT A PROBLEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library.Loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library.SortByNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort by Competency number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library.SortByFactors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort by Factors and Clusters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills.SKILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills.LESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills.TALENTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills.OVERUSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RightsReserved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">© Korn Ferry 2014-2015. All rights reserved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation.Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you sure you wish to reset evaluation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation.Loading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CompetencyItem.Cards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korn Ferry Leadership Architect ©Global Competency Framework Sort Cards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EvaluationResult.Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EvaluationResult.Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No competencies evaluated. Redirrecting...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library.Items.Links.Scales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competency rating scales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library.Items.Links.Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overview </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library.Items.Links.PossibleCauses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possible causes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library.Items.Links.Tips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tips to develop </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library.Items.Links.Reflect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time to reflect </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library.Items.Links.LearnMore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would describe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#007e3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plus-circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This would be true all or the majority of the time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Might describe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This would be true some of the time or may be a mixture of would and would not describe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would Not describe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#D34836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minus-circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This would be seldom or never true</t>
+    <t>Provide an example of when you may have shared information with someone you shouldn't have.  What happened and how did you correct it?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you struggled to get things done with multiple stakeholders.  Why do you think it happened and how did you adjust your approach the next time?</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Stoppers.Title</t>
+  </si>
+  <si>
+    <t>CAREER STALLERS AND STOPPERS</t>
+  </si>
+  <si>
+    <t>Stoppers.Loading</t>
+  </si>
+  <si>
+    <t>Loading stoppers...</t>
+  </si>
+  <si>
+    <t>PageTitles.LIBRARY</t>
+  </si>
+  <si>
+    <t>Competency Library</t>
+  </si>
+  <si>
+    <t>PageTitles.COMPETENCIES</t>
+  </si>
+  <si>
+    <t>Competency Assessment</t>
+  </si>
+  <si>
+    <t>PageTitles.QUESTIONS</t>
+  </si>
+  <si>
+    <t>Behavior-Based Questions</t>
+  </si>
+  <si>
+    <t>PageTitles.HOME</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Home.Title</t>
+  </si>
+  <si>
+    <t>Korn Ferry Leadership Architect</t>
+  </si>
+  <si>
+    <t>Home.Internal</t>
+  </si>
+  <si>
+    <t>For internal use only</t>
+  </si>
+  <si>
+    <t>QuestionsResult.Questions</t>
+  </si>
+  <si>
+    <t>QUESTIONS</t>
+  </si>
+  <si>
+    <t>QuestionsResult.Notes</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>QuestionsResult.Empty</t>
+  </si>
+  <si>
+    <t>No competencies or stoppers selected. Redirrecting...</t>
+  </si>
+  <si>
+    <t>Buttons.Print</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Buttons.Info</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Buttons.Submit</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Buttons.Reset</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Buttons.Close</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Questionaire.Reset</t>
+  </si>
+  <si>
+    <t>Are you sure you wish to reset questionaire?</t>
+  </si>
+  <si>
+    <t>Questionaire.PasswordRequired</t>
+  </si>
+  <si>
+    <t>Password is required to continue</t>
+  </si>
+  <si>
+    <t>Questionaire.PasswordIncorrect</t>
+  </si>
+  <si>
+    <t>Password is incorrect</t>
+  </si>
+  <si>
+    <t>Questionaire.Password</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Questionaire.Login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Questionaire.Loading</t>
+  </si>
+  <si>
+    <t>Loading competencies...</t>
+  </si>
+  <si>
+    <t>StopperItem.Problem</t>
+  </si>
+  <si>
+    <t>PROBLEM</t>
+  </si>
+  <si>
+    <t>StopperItem.NotAProblem</t>
+  </si>
+  <si>
+    <t>NOT A PROBLEM</t>
+  </si>
+  <si>
+    <t>Library.Loading</t>
+  </si>
+  <si>
+    <t>Library.SortByNumber</t>
+  </si>
+  <si>
+    <t>Sort by Competency number</t>
+  </si>
+  <si>
+    <t>Library.SortByFactors</t>
+  </si>
+  <si>
+    <t>Sort by Factors and Clusters</t>
+  </si>
+  <si>
+    <t>Skills.SKILLED</t>
+  </si>
+  <si>
+    <t>Skills.LESS</t>
+  </si>
+  <si>
+    <t>Skills.TALENTED</t>
+  </si>
+  <si>
+    <t>Skills.OVERUSED</t>
+  </si>
+  <si>
+    <t>RightsReserved</t>
+  </si>
+  <si>
+    <t>© Korn Ferry 2014-2015. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Evaluation.Reset</t>
+  </si>
+  <si>
+    <t>Are you sure you wish to reset evaluation?</t>
+  </si>
+  <si>
+    <t>Evaluation.Loading</t>
+  </si>
+  <si>
+    <t>CompetencyItem.Cards</t>
+  </si>
+  <si>
+    <t>Korn Ferry Leadership Architect ©Global Competency Framework Sort Cards</t>
+  </si>
+  <si>
+    <t>EvaluationResult.Legend</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>EvaluationResult.Empty</t>
+  </si>
+  <si>
+    <t>No competencies evaluated. Redirrecting...</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Tooltip</t>
+  </si>
+  <si>
+    <t>Would describe</t>
+  </si>
+  <si>
+    <t>#007e3a</t>
+  </si>
+  <si>
+    <t>plus-circle</t>
+  </si>
+  <si>
+    <t>This would be true all or the majority of the time</t>
+  </si>
+  <si>
+    <t>Might describe</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>This would be true some of the time or may be a mixture of would and would not describe</t>
+  </si>
+  <si>
+    <t>Would Not describe</t>
+  </si>
+  <si>
+    <t>#D34836</t>
+  </si>
+  <si>
+    <t>minus-circle</t>
+  </si>
+  <si>
+    <t>This would be seldom or never true</t>
+  </si>
+  <si>
+    <t>Library.Items.Links.Scales</t>
+  </si>
+  <si>
+    <t>Library.Items.Links.Overview</t>
+  </si>
+  <si>
+    <t>Library.Items.Links.PossibleCauses</t>
+  </si>
+  <si>
+    <t>Library.Items.Links.Tips</t>
+  </si>
+  <si>
+    <t>Library.Items.Links.Reflect</t>
+  </si>
+  <si>
+    <t>Library.Items.Links.LearnMore</t>
+  </si>
+  <si>
+    <t>Competency rating scales</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Possible causes</t>
+  </si>
+  <si>
+    <t>Tips to develop</t>
+  </si>
+  <si>
+    <t>Time to reflect</t>
+  </si>
+  <si>
+    <t>Learn more</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2684,22 +2680,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -2714,7 +2695,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2729,7 +2710,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -2737,7 +2718,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2745,7 +2726,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2758,7 +2739,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2766,7 +2747,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2795,220 +2776,429 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="7">
+    <cellStyle name="columnHeader" xfId="1"/>
+    <cellStyle name="dataCell" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="columnHeader" xfId="20"/>
-    <cellStyle name="dataCell" xfId="21"/>
-    <cellStyle name="Normal 2" xfId="22"/>
-    <cellStyle name="quoteDataCell" xfId="23"/>
-    <cellStyle name="worksheetDescription" xfId="24"/>
-    <cellStyle name="worksheetTitle" xfId="25"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="quoteDataCell" xfId="4"/>
+    <cellStyle name="worksheetDescription" xfId="5"/>
+    <cellStyle name="worksheetTitle" xfId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="49.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="72.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="3" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="8.71"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="5" width="49.28515625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="72.5703125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="26.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="2" customWidth="1"/>
+    <col min="14" max="1025" width="8.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3049,8 +3239,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -3088,8 +3278,8 @@
       </c>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3127,8 +3317,8 @@
       </c>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3166,8 +3356,8 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -3207,8 +3397,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -3246,8 +3436,8 @@
       </c>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3285,8 +3475,8 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -3326,8 +3516,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -3365,8 +3555,8 @@
       </c>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -3404,8 +3594,8 @@
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -3443,8 +3633,8 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3484,8 +3674,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -3523,8 +3713,8 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -3564,8 +3754,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -3603,8 +3793,8 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -3644,8 +3834,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3683,8 +3873,8 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -3722,8 +3912,8 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3761,8 +3951,8 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -3802,8 +3992,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -3841,8 +4031,8 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -3880,8 +4070,8 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -3919,8 +4109,8 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3958,8 +4148,8 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -3999,8 +4189,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4040,8 +4230,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -4079,8 +4269,8 @@
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4118,8 +4308,8 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -4157,8 +4347,8 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -4196,8 +4386,8 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -4235,8 +4425,8 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+    <row r="32" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -4274,8 +4464,8 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+    <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -4313,8 +4503,8 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+    <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -4352,8 +4542,8 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
+    <row r="35" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -4391,8 +4581,8 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
+    <row r="36" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -4430,8 +4620,8 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
+    <row r="37" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -4469,8 +4659,8 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -4508,8 +4698,8 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+    <row r="39" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -4548,41 +4738,33 @@
       <c r="M39" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="17" width="57.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col min="1" max="1" width="9.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="17" customWidth="1"/>
+    <col min="4" max="5" width="57.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" customWidth="1"/>
+    <col min="10" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>379</v>
       </c>
@@ -4592,39 +4774,39 @@
       <c r="C1" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
         <v>101</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>391</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -4640,20 +4822,20 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="212.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="n">
+    <row r="3" spans="1:9" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
         <v>102</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>398</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4667,20 +4849,20 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="n">
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
         <v>103</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>404</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -4692,20 +4874,20 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="171.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="n">
+    <row r="5" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>104</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>410</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4721,20 +4903,20 @@
         <v>414</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="140.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
+    <row r="6" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
         <v>105</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>417</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4748,20 +4930,20 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="n">
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
         <v>106</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>423</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4771,20 +4953,20 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
+    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <v>107</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>428</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -4796,20 +4978,20 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="156" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+    <row r="9" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
         <v>108</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>433</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -4823,20 +5005,20 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
+    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>109</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>439</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4846,20 +5028,20 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="186.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="n">
+    <row r="11" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>110</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>443</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -4872,527 +5054,501 @@
       <c r="I11" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>452</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>454</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>456</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>458</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>462</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>464</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>466</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>468</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>470</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>472</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>474</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>476</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>478</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>480</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>482</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>484</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>486</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>488</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>490</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>492</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>494</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>496</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>497</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>499</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>501</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>502</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>503</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>504</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>505</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>507</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>509</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>510</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>512</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>514</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>533</v>
+      </c>
+      <c r="B41" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>534</v>
+      </c>
+      <c r="B42" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>535</v>
+      </c>
+      <c r="B43" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>536</v>
+      </c>
+      <c r="B44" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>537</v>
+      </c>
+      <c r="B45" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>538</v>
+      </c>
+      <c r="B46" t="s">
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="82.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="82.85546875" customWidth="1"/>
+    <col min="7" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F3" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C1" s="0" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>529</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E4" t="s">
         <v>531</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>544</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/KFLA/Data/data.en.xlsx
+++ b/KFLA/Data/data.en.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="545">
   <si>
     <t xml:space="preserve">Comp #</t>
   </si>
@@ -2579,6 +2579,42 @@
   </si>
   <si>
     <t xml:space="preserve">No competencies evaluated. Redirrecting...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library.Items.Links.Scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competency rating scales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library.Items.Links.Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library.Items.Links.PossibleCauses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible causes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library.Items.Links.Tips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tips to develop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library.Items.Links.Reflect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to reflect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library.Items.Links.LearnMore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn more</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -2823,7 +2859,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2900,10 +2936,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2921,6 +2953,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2956,7 +3000,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="49.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="72.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="3" width="26.85"/>
@@ -4527,14 +4571,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="34.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="17" width="57.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -4548,39 +4592,39 @@
       <c r="C1" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
+      <c r="A2" s="20" t="n">
         <v>101</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>391</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -4597,19 +4641,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="212.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="20" t="n">
         <v>102</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>398</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -4624,19 +4668,19 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="20" t="n">
         <v>103</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>404</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -4649,19 +4693,19 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="171.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="20" t="n">
         <v>104</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>410</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4678,19 +4722,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="140.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="20" t="n">
         <v>105</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>417</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4705,19 +4749,19 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="20" t="n">
         <v>106</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>423</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4728,19 +4772,19 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="20" t="n">
         <v>107</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>428</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -4753,19 +4797,19 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="156" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="20" t="n">
         <v>108</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>433</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -4780,19 +4824,19 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="20" t="n">
         <v>109</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>439</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4803,19 +4847,19 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="186.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
+      <c r="A11" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>443</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -4843,15 +4887,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
@@ -5176,6 +5220,59 @@
         <v>4</v>
       </c>
     </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="24"/>
+      <c r="B47" s="26"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5211,22 +5308,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>380</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,19 +5331,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5254,19 +5351,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5274,19 +5371,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
